--- a/selectiveHorns_om3/WMU42_StonesSheep_selective_om3.xlsx
+++ b/selectiveHorns_om3/WMU42_StonesSheep_selective_om3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Stock" sheetId="1" state="visible" r:id="rId2"/>
@@ -1195,8 +1195,8 @@
   </sheetPr>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1654,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>37</v>
@@ -2695,7 +2695,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
